--- a/JungSeungWon/종합설계 주간 계획표.xlsx
+++ b/JungSeungWon/종합설계 주간 계획표.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D537E94-D5E5-4DA4-BAE0-C5A41F0F8E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF90E9-152B-4343-9CBA-A62434BF3F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7월 플래너" sheetId="4" r:id="rId1"/>
@@ -1077,38 +1077,11 @@
     <xf numFmtId="182" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="179" fontId="18" fillId="39" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,7 +1089,7 @@
     <xf numFmtId="178" fontId="18" fillId="34" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,13 +1140,13 @@
     <xf numFmtId="179" fontId="18" fillId="37" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="18" fillId="37" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,82 +1155,85 @@
     <xf numFmtId="178" fontId="18" fillId="35" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="18" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="18" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="35" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="18" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="30" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="30" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="39" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="30" fillId="37" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="30" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="30" fillId="37" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="30" fillId="38" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="38" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="31" fillId="37" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="31" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="31" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="36" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,13 +1248,37 @@
     <xf numFmtId="178" fontId="18" fillId="36" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="31" fillId="36" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="36" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="35" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="31" fillId="38" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,91 +1331,7 @@
     <cellStyle name="통화 [0]" xfId="4" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <fill>
         <patternFill>
@@ -2697,8 +2613,8 @@
   </sheetPr>
   <dimension ref="C1:AF45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AJ29" sqref="AJ29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2738,13 +2654,13 @@
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="3:32" s="24" customFormat="1" ht="66" customHeight="1">
-      <c r="C2" s="36">
+      <c r="C2" s="76">
         <v>45495</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
       <c r="I2" s="28"/>
       <c r="J2" s="6"/>
@@ -2804,738 +2720,738 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="3:32" s="25" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="33"/>
+      <c r="V4" s="74"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+1)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+1)</f>
         <v/>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="37">
+      <c r="F5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+2)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+2)</f>
         <v>45474</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="37">
+      <c r="I5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+3)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+3)</f>
         <v>45475</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="37">
+      <c r="L5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+4)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+4)</f>
         <v>45476</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="37">
+      <c r="O5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+5)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+5)</f>
         <v>45477</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="37">
+      <c r="R5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+6)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+6)</f>
         <v>45478</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="37">
+      <c r="U5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+7)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+7)</f>
         <v>45479</v>
       </c>
-      <c r="V5" s="37"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="12"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="3:32" ht="18" customHeight="1">
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="62"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="4"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="3:32" ht="18" customHeight="1">
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="53"/>
       <c r="W7" s="4"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="3:32" ht="18" customHeight="1">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="62"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
       <c r="W8" s="4"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="3:32" ht="18" customHeight="1">
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="53"/>
       <c r="W9" s="4"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="3:32" ht="18" customHeight="1">
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="62"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="4"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C11" s="34">
+      <c r="C11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+8)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+8)</f>
         <v>45480</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="34">
+      <c r="F11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+9)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+9)</f>
         <v>45481</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="34">
+      <c r="I11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+10)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+10)</f>
         <v>45482</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="34">
+      <c r="L11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+11)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+11)</f>
         <v>45483</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="34">
+      <c r="O11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+12)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+12)</f>
         <v>45484</v>
       </c>
-      <c r="P11" s="34"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="34">
+      <c r="R11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+13)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+13)</f>
         <v>45485</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="71"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="34">
+      <c r="U11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+14)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+14)</f>
         <v>45486</v>
       </c>
-      <c r="V11" s="34"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="12"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="14"/>
     </row>
     <row r="12" spans="3:32" ht="18" customHeight="1">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="51"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="4"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="3:32" ht="18" customHeight="1">
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="4"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="3:32" ht="18" customHeight="1">
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="42"/>
       <c r="W14" s="4"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="3:32" ht="18" customHeight="1">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="42"/>
       <c r="W15" s="4"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="3:32" ht="18" customHeight="1">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="4"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="34">
+      <c r="C17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+15)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+15)</f>
         <v>45487</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="34">
+      <c r="F17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+16)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+16)</f>
         <v>45488</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34">
+      <c r="I17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+17)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+17)</f>
         <v>45489</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="34">
+      <c r="L17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+18)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+18)</f>
         <v>45490</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="34">
+      <c r="O17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+19)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+19)</f>
         <v>45491</v>
       </c>
-      <c r="P17" s="34"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="34">
+      <c r="R17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+20)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+20)</f>
         <v>45492</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="34">
+      <c r="U17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+21)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+21)</f>
         <v>45493</v>
       </c>
-      <c r="V17" s="34"/>
+      <c r="V17" s="71"/>
       <c r="W17" s="12"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="3:32" ht="18" customHeight="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="41"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="4"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="3:32" ht="18" customHeight="1">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="41"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="4"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="3:32" ht="18" customHeight="1">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="41"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="66"/>
       <c r="W20" s="4"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="3:32" ht="18" customHeight="1">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="41"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="4"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="3:32" ht="18" customHeight="1">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="41"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="66"/>
       <c r="W22" s="4"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="34">
+      <c r="C23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+22)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+22)</f>
         <v>45494</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="34">
+      <c r="F23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+23)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+23)</f>
         <v>45495</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="34">
+      <c r="I23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+24)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+24)</f>
         <v>45496</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="34">
+      <c r="L23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+25)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+25)</f>
         <v>45497</v>
       </c>
-      <c r="M23" s="34"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="34">
+      <c r="O23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+26)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+26)</f>
         <v>45498</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="71"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="34">
+      <c r="R23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+27)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+27)</f>
         <v>45499</v>
       </c>
-      <c r="S23" s="34"/>
+      <c r="S23" s="71"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="34">
+      <c r="U23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+28)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+28)</f>
         <v>45500</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="71"/>
       <c r="W23" s="12"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
@@ -3548,63 +3464,63 @@
       <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="3:32" ht="18" customHeight="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="73"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
       <c r="W24" s="4"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="32">
+      <c r="Y24" s="70">
         <f>EDATE(ThisMonth,-1)</f>
         <v>45465</v>
       </c>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="3:32" ht="18" customHeight="1">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
       <c r="W25" s="4"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="20" t="s">
@@ -3631,26 +3547,26 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="3:32" ht="18" customHeight="1">
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
       <c r="W26" s="4"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="30" t="str">
@@ -3684,26 +3600,26 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="3:32" ht="18" customHeight="1">
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="73"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
       <c r="W27" s="4"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="30">
@@ -3737,26 +3653,26 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="3:32" ht="18" customHeight="1">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="73"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="69"/>
       <c r="W28" s="4"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="30">
@@ -3790,47 +3706,47 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C29" s="34">
+      <c r="C29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+29)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+29)</f>
         <v>45501</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="34">
+      <c r="F29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+30)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+30)</f>
         <v>45502</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="34">
+      <c r="I29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+31)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+31)</f>
         <v>45503</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="34">
+      <c r="L29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+32)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+32)</f>
         <v>45504</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="34" t="str">
+      <c r="O29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+33)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+33)</f>
         <v/>
       </c>
-      <c r="P29" s="34"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="34" t="str">
+      <c r="R29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+34)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+34)</f>
         <v/>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="71"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="34" t="str">
+      <c r="U29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+35)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+35)</f>
         <v/>
       </c>
-      <c r="V29" s="34"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="30">
@@ -3864,19 +3780,19 @@
       <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="3:32" ht="18" customHeight="1">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="70"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="4"/>
       <c r="O30" s="15"/>
       <c r="P30" s="16"/>
@@ -3919,17 +3835,17 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="3:32" ht="18" customHeight="1">
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="4"/>
       <c r="O31" s="15"/>
       <c r="P31" s="16"/>
@@ -3972,17 +3888,17 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="3:32" ht="18" customHeight="1">
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="70"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="4"/>
       <c r="O32" s="15"/>
       <c r="P32" s="16"/>
@@ -4004,17 +3920,17 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="3:32" ht="18" customHeight="1">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="70"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="4"/>
       <c r="O33" s="15"/>
       <c r="P33" s="16"/>
@@ -4026,30 +3942,30 @@
       <c r="V33" s="16"/>
       <c r="W33" s="4"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="32">
+      <c r="Y33" s="70">
         <f>EDATE(ThisMonth,1)</f>
         <v>45526</v>
       </c>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="3:32" ht="18" customHeight="1">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="70"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="4"/>
       <c r="O34" s="18"/>
       <c r="P34" s="19"/>
@@ -4085,47 +4001,47 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C35" s="34" t="str">
+      <c r="C35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+36)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+36)</f>
         <v/>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+37)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+37)</f>
         <v/>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="34" t="str">
+      <c r="I35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+38)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+38)</f>
         <v/>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="34" t="str">
+      <c r="L35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+39)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+39)</f>
         <v/>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="34" t="str">
+      <c r="O35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+40)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+40)</f>
         <v/>
       </c>
-      <c r="P35" s="34"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="34" t="str">
+      <c r="R35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+41)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+41)</f>
         <v/>
       </c>
-      <c r="S35" s="34"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+42)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+42)</f>
         <v/>
       </c>
-      <c r="V35" s="34"/>
+      <c r="V35" s="71"/>
       <c r="W35" s="12"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="30" t="str">
@@ -4585,69 +4501,11 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="C24:D28"/>
-    <mergeCell ref="C18:D22"/>
-    <mergeCell ref="C12:D16"/>
-    <mergeCell ref="F6:V10"/>
-    <mergeCell ref="F12:V16"/>
-    <mergeCell ref="C30:D34"/>
-    <mergeCell ref="F30:M34"/>
-    <mergeCell ref="F18:V22"/>
-    <mergeCell ref="F24:V28"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y24:AE24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="Y18:AE18"/>
-    <mergeCell ref="Y19:AE19"/>
-    <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Y16:AE16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="Y7:AE7"/>
-    <mergeCell ref="Y8:AE8"/>
-    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="Y10:AE10"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="U4:V4"/>
@@ -4659,124 +4517,182 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y16:AE16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="C30:D34"/>
+    <mergeCell ref="F30:M34"/>
+    <mergeCell ref="F18:V22"/>
+    <mergeCell ref="F24:V28"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Y18:AE18"/>
+    <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="Y20:AE20"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D28"/>
+    <mergeCell ref="C18:D22"/>
+    <mergeCell ref="C12:D16"/>
+    <mergeCell ref="F6:V10"/>
+    <mergeCell ref="F12:V16"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C10 C12 C18 C30 C24 F18">
-    <cfRule type="expression" dxfId="131" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="C6:C10 C12 C18 F18 C24 C30">
+    <cfRule type="expression" dxfId="119" priority="28" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="29" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="30" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="32">
+    <cfRule type="expression" dxfId="116" priority="32">
       <formula>OFFSET(C6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C40">
-    <cfRule type="expression" dxfId="127" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="20" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="21" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="22" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="24">
+    <cfRule type="expression" dxfId="112" priority="24">
       <formula>OFFSET(C36,0,1)="생일"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D10 F6">
-    <cfRule type="expression" dxfId="123" priority="25">
-      <formula>D6="작업"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="26">
-      <formula>D6="홈"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="27">
-      <formula>D6="개인"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="31">
-      <formula>D6="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="119" priority="17">
+    <cfRule type="expression" dxfId="111" priority="17">
       <formula>D36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="18">
+    <cfRule type="expression" dxfId="110" priority="18">
       <formula>D36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="19">
+    <cfRule type="expression" dxfId="109" priority="19">
       <formula>D36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="23">
+    <cfRule type="expression" dxfId="108" priority="23">
       <formula>D36="생일"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 D6:D10">
+    <cfRule type="expression" dxfId="107" priority="25">
+      <formula>D6="작업"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="26">
+      <formula>D6="홈"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="27">
+      <formula>D6="개인"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="31">
+      <formula>D6="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F24 F30 O30:O34 R30:R34 U30:U34">
-    <cfRule type="expression" dxfId="115" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="12" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="13" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="14" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="16">
+    <cfRule type="expression" dxfId="100" priority="16">
       <formula>OFFSET(F12,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F40 I36:I40 L36:L40 O36:O40 R36:R40 U36:U40">
-    <cfRule type="expression" dxfId="111" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="4" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="5" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="8">
+    <cfRule type="expression" dxfId="96" priority="8">
       <formula>OFFSET(F36,0,1)="생일"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G40 J36:J40 M36:M40 P36:P40 S36:S40 V36:V40">
+    <cfRule type="expression" dxfId="95" priority="1">
+      <formula>G36="작업"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="2">
+      <formula>G36="홈"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="3">
+      <formula>G36="개인"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="7">
+      <formula>G36="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:P34 S30:S34 V30:V34">
-    <cfRule type="expression" dxfId="107" priority="9">
+    <cfRule type="expression" dxfId="91" priority="9">
       <formula>P30="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="10">
+    <cfRule type="expression" dxfId="90" priority="10">
       <formula>P30="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="11">
+    <cfRule type="expression" dxfId="89" priority="11">
       <formula>P30="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="15">
+    <cfRule type="expression" dxfId="88" priority="15">
       <formula>P30="생일"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G40 J36:J40 M36:M40 P36:P40 S36:S40 V36:V40">
-    <cfRule type="expression" dxfId="103" priority="1">
-      <formula>G36="작업"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="2">
-      <formula>G36="홈"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="3">
-      <formula>G36="개인"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="7">
-      <formula>G36="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="177" yWindow="534" count="7">
@@ -4806,8 +4722,8 @@
   </sheetPr>
   <dimension ref="C1:AF45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AL25" sqref="AL25"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -4847,13 +4763,13 @@
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="3:32" s="24" customFormat="1" ht="66" customHeight="1">
-      <c r="C2" s="36">
+      <c r="C2" s="76">
         <v>45526</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
       <c r="I2" s="28"/>
       <c r="J2" s="6"/>
@@ -4913,742 +4829,742 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="3:32" s="25" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="33"/>
+      <c r="V4" s="74"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+1)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+1)</f>
         <v/>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+2)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+2)</f>
         <v/>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+3)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+3)</f>
         <v/>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="37" t="str">
+      <c r="L5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+4)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+4)</f>
         <v/>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="37">
+      <c r="O5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+5)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+5)</f>
         <v>45505</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="37">
+      <c r="R5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+6)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+6)</f>
         <v>45506</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="37">
+      <c r="U5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+7)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+7)</f>
         <v>45507</v>
       </c>
-      <c r="V5" s="37"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="12"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="3:32" ht="18" customHeight="1">
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="79" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
       <c r="W6" s="4"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="3:32" ht="18" customHeight="1">
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
       <c r="W7" s="4"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="3:32" ht="18" customHeight="1">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
       <c r="W8" s="4"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="3:32" ht="18" customHeight="1">
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="4"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="3:32" ht="18" customHeight="1">
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
       <c r="W10" s="4"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C11" s="34">
+      <c r="C11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+8)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+8)</f>
         <v>45508</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="34">
+      <c r="F11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+9)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+9)</f>
         <v>45509</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="34">
+      <c r="I11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+10)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+10)</f>
         <v>45510</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="34">
+      <c r="L11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+11)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+11)</f>
         <v>45511</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="34">
+      <c r="O11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+12)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+12)</f>
         <v>45512</v>
       </c>
-      <c r="P11" s="34"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="34">
+      <c r="R11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+13)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+13)</f>
         <v>45513</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="71"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="34">
+      <c r="U11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+14)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+14)</f>
         <v>45514</v>
       </c>
-      <c r="V11" s="34"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="12"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="14"/>
     </row>
     <row r="12" spans="3:32" ht="18" customHeight="1">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4"/>
       <c r="F12" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="51"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="4"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="3:32" ht="18" customHeight="1">
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="4"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="3:32" ht="18" customHeight="1">
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="42"/>
       <c r="W14" s="4"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="3:32" ht="18" customHeight="1">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="42"/>
       <c r="W15" s="4"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="3:32" ht="18" customHeight="1">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="4"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="34">
+      <c r="C17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+15)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+15)</f>
         <v>45515</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="34">
+      <c r="F17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+16)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+16)</f>
         <v>45516</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34">
+      <c r="I17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+17)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+17)</f>
         <v>45517</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="34">
+      <c r="L17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+18)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+18)</f>
         <v>45518</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="34">
+      <c r="O17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+19)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+19)</f>
         <v>45519</v>
       </c>
-      <c r="P17" s="34"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="34">
+      <c r="R17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+20)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+20)</f>
         <v>45520</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="34">
+      <c r="U17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+21)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+21)</f>
         <v>45521</v>
       </c>
-      <c r="V17" s="34"/>
+      <c r="V17" s="71"/>
       <c r="W17" s="12"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="3:32" ht="18" customHeight="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="41"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="4"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="3:32" ht="18" customHeight="1">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="41"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="4"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="3:32" ht="18" customHeight="1">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="41"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="66"/>
       <c r="W20" s="4"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="3:32" ht="18" customHeight="1">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="41"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="4"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="3:32" ht="18" customHeight="1">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="41"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="66"/>
       <c r="W22" s="4"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="34">
+      <c r="C23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+22)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+22)</f>
         <v>45522</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="34">
+      <c r="F23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+23)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+23)</f>
         <v>45523</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="34">
+      <c r="I23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+24)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+24)</f>
         <v>45524</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="34">
+      <c r="L23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+25)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+25)</f>
         <v>45525</v>
       </c>
-      <c r="M23" s="34"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="34">
+      <c r="O23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+26)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+26)</f>
         <v>45526</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="71"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="34">
+      <c r="R23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+27)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+27)</f>
         <v>45527</v>
       </c>
-      <c r="S23" s="34"/>
+      <c r="S23" s="71"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="34">
+      <c r="U23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+28)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+28)</f>
         <v>45528</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="71"/>
       <c r="W23" s="12"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
@@ -5661,63 +5577,63 @@
       <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="3:32" ht="18" customHeight="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="73"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
       <c r="W24" s="4"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="32">
+      <c r="Y24" s="70">
         <f>EDATE(ThisMonth,-1)</f>
         <v>45495</v>
       </c>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="3:32" ht="18" customHeight="1">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="73"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
       <c r="W25" s="4"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="20" t="s">
@@ -5744,26 +5660,26 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="3:32" ht="18" customHeight="1">
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="73"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
       <c r="W26" s="4"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="30" t="str">
@@ -5797,26 +5713,26 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="3:32" ht="18" customHeight="1">
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="73"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
       <c r="W27" s="4"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="30">
@@ -5850,26 +5766,26 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="3:32" ht="18" customHeight="1">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="73"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="69"/>
       <c r="W28" s="4"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="30">
@@ -5903,47 +5819,47 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C29" s="34">
+      <c r="C29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+29)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+29)</f>
         <v>45529</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="34">
+      <c r="F29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+30)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+30)</f>
         <v>45530</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="34">
+      <c r="I29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+31)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+31)</f>
         <v>45531</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="34">
+      <c r="L29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+32)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+32)</f>
         <v>45532</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="34">
+      <c r="O29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+33)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+33)</f>
         <v>45533</v>
       </c>
-      <c r="P29" s="34"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="34">
+      <c r="R29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+34)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+34)</f>
         <v>45534</v>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="71"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="34">
+      <c r="U29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+35)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+35)</f>
         <v>45535</v>
       </c>
-      <c r="V29" s="34"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="30">
@@ -5977,28 +5893,28 @@
       <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="3:32" ht="18" customHeight="1">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="78"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="80"/>
       <c r="W30" s="4"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="30">
@@ -6032,26 +5948,26 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="3:32" ht="18" customHeight="1">
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="78"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="80"/>
       <c r="W31" s="4"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="30" t="str">
@@ -6085,26 +6001,26 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="3:32" ht="18" customHeight="1">
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="78"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="80"/>
       <c r="W32" s="4"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="4"/>
@@ -6117,61 +6033,61 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="3:32" ht="18" customHeight="1">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="78"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="80"/>
       <c r="W33" s="4"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="32">
+      <c r="Y33" s="70">
         <f>EDATE(ThisMonth,1)</f>
         <v>45557</v>
       </c>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="3:32" ht="18" customHeight="1">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="77"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="77"/>
-      <c r="U34" s="77"/>
-      <c r="V34" s="78"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="80"/>
       <c r="W34" s="4"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="20" t="s">
@@ -6198,47 +6114,47 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C35" s="34" t="str">
+      <c r="C35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+36)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+36)</f>
         <v/>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+37)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+37)</f>
         <v/>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="34" t="str">
+      <c r="I35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+38)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+38)</f>
         <v/>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="34" t="str">
+      <c r="L35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+39)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+39)</f>
         <v/>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="34" t="str">
+      <c r="O35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+40)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+40)</f>
         <v/>
       </c>
-      <c r="P35" s="34"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="34" t="str">
+      <c r="R35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+41)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+41)</f>
         <v/>
       </c>
-      <c r="S35" s="34"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+42)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+42)</f>
         <v/>
       </c>
-      <c r="V35" s="34"/>
+      <c r="V35" s="71"/>
       <c r="W35" s="12"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="30">
@@ -6698,35 +6614,42 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="O6:V10"/>
-    <mergeCell ref="F30:V34"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="C30:D34"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C24:D28"/>
-    <mergeCell ref="F24:V28"/>
-    <mergeCell ref="Y24:AE24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="Y10:AE10"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="C12:D16"/>
+    <mergeCell ref="F12:V16"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y16:AE16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
     <mergeCell ref="Y17:AE17"/>
     <mergeCell ref="C18:D22"/>
     <mergeCell ref="F18:V22"/>
@@ -6741,154 +6664,147 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="R17:S17"/>
+    <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="O6:V10"/>
+    <mergeCell ref="F30:V34"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="C30:D34"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C24:D28"/>
+    <mergeCell ref="F24:V28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U17:V17"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="C12:D16"/>
-    <mergeCell ref="F12:V16"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="Y16:AE16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="Y7:AE7"/>
-    <mergeCell ref="Y8:AE8"/>
-    <mergeCell ref="Y9:AE9"/>
-    <mergeCell ref="Y10:AE10"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C10 C12 C18 C30 C24 F18">
-    <cfRule type="expression" dxfId="99" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="C6:C10 C12 C18 F18 C24 C30">
+    <cfRule type="expression" dxfId="87" priority="32" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="33" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="34" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="36">
+    <cfRule type="expression" dxfId="84" priority="36">
       <formula>OFFSET(C6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C40">
-    <cfRule type="expression" dxfId="95" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="24" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="25" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="26" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="28">
+    <cfRule type="expression" dxfId="80" priority="28">
       <formula>OFFSET(C36,0,1)="생일"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D10 F6">
-    <cfRule type="expression" dxfId="91" priority="29">
-      <formula>D6="작업"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="30">
-      <formula>D6="홈"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="31">
-      <formula>D6="개인"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="35">
-      <formula>D6="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="87" priority="21">
+    <cfRule type="expression" dxfId="79" priority="21">
       <formula>D36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="22">
+    <cfRule type="expression" dxfId="78" priority="22">
       <formula>D36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="23">
+    <cfRule type="expression" dxfId="77" priority="23">
       <formula>D36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="27">
+    <cfRule type="expression" dxfId="76" priority="27">
       <formula>D36="생일"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 D6:D10">
+    <cfRule type="expression" dxfId="75" priority="29">
+      <formula>D6="작업"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="30">
+      <formula>D6="홈"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="31">
+      <formula>D6="개인"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="35">
+      <formula>D6="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F24 F30">
-    <cfRule type="expression" dxfId="83" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="16" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="17" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="18" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="20">
+    <cfRule type="expression" dxfId="68" priority="20">
       <formula>OFFSET(F12,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F40 I36:I40 L36:L40 O36:O40 R36:R40 U36:U40">
-    <cfRule type="expression" dxfId="79" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="8" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="9" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="10" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="12">
+    <cfRule type="expression" dxfId="64" priority="12">
       <formula>OFFSET(F36,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G40 J36:J40 M36:M40 P36:P40 S36:S40 V36:V40">
-    <cfRule type="expression" dxfId="71" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>G36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6">
+    <cfRule type="expression" dxfId="62" priority="6">
       <formula>G36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="7">
+    <cfRule type="expression" dxfId="61" priority="7">
       <formula>G36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="60" priority="11">
       <formula>G36="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="67" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="1" stopIfTrue="1">
       <formula>OFFSET(O6,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="2" stopIfTrue="1">
       <formula>OFFSET(O6,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>OFFSET(O6,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>OFFSET(O6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6920,7 +6836,7 @@
   <dimension ref="C1:AF45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:V28"/>
+      <selection activeCell="I2" sqref="I2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -6960,31 +6876,31 @@
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="3:32" s="24" customFormat="1" ht="66" customHeight="1">
-      <c r="C2" s="36">
+      <c r="C2" s="76">
         <v>45557</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -7028,740 +6944,740 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="3:32" s="25" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="33"/>
+      <c r="V4" s="74"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C5" s="37">
+      <c r="C5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+1)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+1)</f>
         <v>45536</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="37">
+      <c r="F5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+2)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+2)</f>
         <v>45537</v>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="37">
+      <c r="I5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+3)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+3)</f>
         <v>45538</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="37">
+      <c r="L5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+4)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+4)</f>
         <v>45539</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="37">
+      <c r="O5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+5)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+5)</f>
         <v>45540</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="37">
+      <c r="R5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+6)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+6)</f>
         <v>45541</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="37">
+      <c r="U5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+7)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+7)</f>
         <v>45542</v>
       </c>
-      <c r="V5" s="37"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="12"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="3:32" ht="18" customHeight="1">
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="57"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="48"/>
       <c r="W6" s="4"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="3:32" ht="18" customHeight="1">
-      <c r="C7" s="68"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="57"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="48"/>
       <c r="W7" s="4"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="3:32" ht="18" customHeight="1">
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="57"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="48"/>
       <c r="W8" s="4"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="3:32" ht="18" customHeight="1">
-      <c r="C9" s="68"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="57"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="48"/>
       <c r="W9" s="4"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="3:32" ht="18" customHeight="1">
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="57"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="4"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C11" s="34">
+      <c r="C11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+8)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+8)</f>
         <v>45543</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="34">
+      <c r="F11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+9)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+9)</f>
         <v>45544</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="34">
+      <c r="I11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+10)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+10)</f>
         <v>45545</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="34">
+      <c r="L11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+11)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+11)</f>
         <v>45546</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="34">
+      <c r="O11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+12)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+12)</f>
         <v>45547</v>
       </c>
-      <c r="P11" s="34"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="34">
+      <c r="R11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+13)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+13)</f>
         <v>45548</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="71"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="34">
+      <c r="U11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+14)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+14)</f>
         <v>45549</v>
       </c>
-      <c r="V11" s="34"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="12"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="14"/>
     </row>
     <row r="12" spans="3:32" ht="18" customHeight="1">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="51"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="4"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="3:32" ht="18" customHeight="1">
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="4"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="3:32" ht="18" customHeight="1">
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="42"/>
       <c r="W14" s="4"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="3:32" ht="18" customHeight="1">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="42"/>
       <c r="W15" s="4"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="3:32" ht="18" customHeight="1">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="4"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="34">
+      <c r="C17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+15)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+15)</f>
         <v>45550</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="34">
+      <c r="F17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+16)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+16)</f>
         <v>45551</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34">
+      <c r="I17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+17)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+17)</f>
         <v>45552</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="34">
+      <c r="L17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+18)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+18)</f>
         <v>45553</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="34">
+      <c r="O17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+19)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+19)</f>
         <v>45554</v>
       </c>
-      <c r="P17" s="34"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="34">
+      <c r="R17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+20)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+20)</f>
         <v>45555</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="34">
+      <c r="U17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+21)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+21)</f>
         <v>45556</v>
       </c>
-      <c r="V17" s="34"/>
+      <c r="V17" s="71"/>
       <c r="W17" s="12"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="3:32" ht="18" customHeight="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="85"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="95"/>
       <c r="W18" s="4"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="3:32" ht="18" customHeight="1">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="85"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="95"/>
       <c r="W19" s="4"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="3:32" ht="18" customHeight="1">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="85"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="95"/>
       <c r="W20" s="4"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="3:32" ht="18" customHeight="1">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="95"/>
       <c r="W21" s="4"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="3:32" ht="18" customHeight="1">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="95"/>
       <c r="W22" s="4"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="34">
+      <c r="C23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+22)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+22)</f>
         <v>45557</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="34">
+      <c r="F23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+23)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+23)</f>
         <v>45558</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="34">
+      <c r="I23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+24)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+24)</f>
         <v>45559</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="34">
+      <c r="L23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+25)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+25)</f>
         <v>45560</v>
       </c>
-      <c r="M23" s="34"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="34">
+      <c r="O23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+26)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+26)</f>
         <v>45561</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="71"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="34">
+      <c r="R23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+27)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+27)</f>
         <v>45562</v>
       </c>
-      <c r="S23" s="34"/>
+      <c r="S23" s="71"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="34">
+      <c r="U23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+28)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+28)</f>
         <v>45563</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="71"/>
       <c r="W23" s="12"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
@@ -7774,63 +7690,63 @@
       <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="3:32" ht="18" customHeight="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="4"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="32">
+      <c r="Y24" s="70">
         <f>EDATE(ThisMonth,-1)</f>
         <v>45526</v>
       </c>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="3:32" ht="18" customHeight="1">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="88"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="4"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="20" t="s">
@@ -7857,26 +7773,26 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="3:32" ht="18" customHeight="1">
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="88"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="93"/>
       <c r="W26" s="4"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="30" t="str">
@@ -7910,26 +7826,26 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="3:32" ht="18" customHeight="1">
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="88"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="93"/>
       <c r="W27" s="4"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="30">
@@ -7963,26 +7879,26 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="3:32" ht="18" customHeight="1">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="88"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="93"/>
       <c r="W28" s="4"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="30">
@@ -8016,47 +7932,47 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C29" s="34">
+      <c r="C29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+29)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+29)</f>
         <v>45564</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="34">
+      <c r="F29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+30)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+30)</f>
         <v>45565</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="34" t="str">
+      <c r="I29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+31)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+31)</f>
         <v/>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="34" t="str">
+      <c r="L29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+32)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+32)</f>
         <v/>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="34" t="str">
+      <c r="O29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+33)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+33)</f>
         <v/>
       </c>
-      <c r="P29" s="34"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="34" t="str">
+      <c r="R29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+34)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+34)</f>
         <v/>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="71"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="34" t="str">
+      <c r="U29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+35)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+35)</f>
         <v/>
       </c>
-      <c r="V29" s="34"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="30">
@@ -8090,28 +8006,28 @@
       <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="3:32" ht="18" customHeight="1">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="91"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="90"/>
       <c r="W30" s="4"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="30">
@@ -8145,26 +8061,26 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="3:32" ht="18" customHeight="1">
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="91"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="90"/>
       <c r="W31" s="4"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="30" t="str">
@@ -8198,26 +8114,26 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="3:32" ht="18" customHeight="1">
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="91"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="90"/>
       <c r="W32" s="4"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="4"/>
@@ -8230,61 +8146,61 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="3:32" ht="18" customHeight="1">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="91"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="90"/>
       <c r="W33" s="4"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="32">
+      <c r="Y33" s="70">
         <f>EDATE(ThisMonth,1)</f>
         <v>45587</v>
       </c>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="3:32" ht="18" customHeight="1">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="91"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="90"/>
       <c r="W34" s="4"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="20" t="s">
@@ -8311,47 +8227,47 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C35" s="34" t="str">
+      <c r="C35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+36)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+36)</f>
         <v/>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+37)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+37)</f>
         <v/>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="34" t="str">
+      <c r="I35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+38)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+38)</f>
         <v/>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="34" t="str">
+      <c r="L35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+39)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+39)</f>
         <v/>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="34" t="str">
+      <c r="O35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+40)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+40)</f>
         <v/>
       </c>
-      <c r="P35" s="34"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="34" t="str">
+      <c r="R35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+41)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+41)</f>
         <v/>
       </c>
-      <c r="S35" s="34"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+42)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+42)</f>
         <v/>
       </c>
-      <c r="V35" s="34"/>
+      <c r="V35" s="71"/>
       <c r="W35" s="12"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="30" t="str">
@@ -8811,50 +8727,29 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="F6:V10"/>
-    <mergeCell ref="C6:D10"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="C30:D34"/>
-    <mergeCell ref="F30:V34"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="C24:D28"/>
-    <mergeCell ref="F24:V28"/>
-    <mergeCell ref="Y24:AE24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="C18:D22"/>
-    <mergeCell ref="F18:V22"/>
-    <mergeCell ref="Y18:AE18"/>
-    <mergeCell ref="Y19:AE19"/>
-    <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:W2"/>
+    <mergeCell ref="Y10:AE10"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="Y9:AE9"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="Y11:AE11"/>
     <mergeCell ref="C12:D16"/>
@@ -8870,127 +8765,148 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="Y7:AE7"/>
-    <mergeCell ref="Y8:AE8"/>
-    <mergeCell ref="Y9:AE9"/>
-    <mergeCell ref="Y10:AE10"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I2:W2"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="C18:D22"/>
+    <mergeCell ref="F18:V22"/>
+    <mergeCell ref="Y18:AE18"/>
+    <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="Y20:AE20"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="F6:V10"/>
+    <mergeCell ref="C6:D10"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="C30:D34"/>
+    <mergeCell ref="F30:V34"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="C24:D28"/>
+    <mergeCell ref="F24:V28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="C6 C12 C18 C30 C24 F18">
-    <cfRule type="expression" dxfId="63" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="C6 C12 C18 F18 C24 C30">
+    <cfRule type="expression" dxfId="55" priority="32" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="33" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="36">
+    <cfRule type="expression" dxfId="52" priority="36">
       <formula>OFFSET(C6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C40">
-    <cfRule type="expression" dxfId="59" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
       <formula>OFFSET(C36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>OFFSET(C36,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="expression" dxfId="51" priority="21">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>D36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>D36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23">
+    <cfRule type="expression" dxfId="45" priority="23">
       <formula>D36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27">
+    <cfRule type="expression" dxfId="44" priority="27">
       <formula>D36="생일"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="43" priority="1" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="작업"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="2" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="홈"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="3" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="개인"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="4">
+      <formula>OFFSET(F6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 F24 F30">
-    <cfRule type="expression" dxfId="47" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="17" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="18" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>OFFSET(F12,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F40 I36:I40 L36:L40 O36:O40 R36:R40 U36:U40">
-    <cfRule type="expression" dxfId="43" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>OFFSET(F36,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G40 J36:J40 M36:M40 P36:P40 S36:S40 V36:V40">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>G36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>G36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>G36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>G36="생일"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="작업"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="홈"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="개인"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>OFFSET(F6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -9020,7 +8936,7 @@
   </sheetPr>
   <dimension ref="C1:AF45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
@@ -9061,31 +8977,31 @@
       <c r="AF1" s="4"/>
     </row>
     <row r="2" spans="3:32" s="24" customFormat="1" ht="66" customHeight="1">
-      <c r="C2" s="36">
+      <c r="C2" s="76">
         <v>45587</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
@@ -9129,740 +9045,740 @@
       <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="3:32" s="25" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="33"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="11"/>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="74"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="33"/>
+      <c r="V4" s="74"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C5" s="37" t="str">
+      <c r="C5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+1)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+1)</f>
         <v/>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="75" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+2)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+2)</f>
         <v/>
       </c>
-      <c r="G5" s="37"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="37">
+      <c r="I5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+3)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+3)</f>
         <v>45566</v>
       </c>
-      <c r="J5" s="37"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="37">
+      <c r="L5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+4)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+4)</f>
         <v>45567</v>
       </c>
-      <c r="M5" s="37"/>
+      <c r="M5" s="75"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="37">
+      <c r="O5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+5)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+5)</f>
         <v>45568</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="37">
+      <c r="R5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+6)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+6)</f>
         <v>45569</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="37">
+      <c r="U5" s="75">
         <f>IF(MONTH(ThisMonth_WeekStart+7)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+7)</f>
         <v>45570</v>
       </c>
-      <c r="V5" s="37"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="12"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
       <c r="AF5" s="14"/>
     </row>
     <row r="6" spans="3:32" ht="18" customHeight="1">
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="57"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="48"/>
       <c r="W6" s="4"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
       <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="3:32" ht="18" customHeight="1">
-      <c r="C7" s="68"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="57"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="48"/>
       <c r="W7" s="4"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
       <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="3:32" ht="18" customHeight="1">
-      <c r="C8" s="68"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="96"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="96"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="57"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="48"/>
       <c r="W8" s="4"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
       <c r="AF8" s="4"/>
     </row>
     <row r="9" spans="3:32" ht="18" customHeight="1">
-      <c r="C9" s="68"/>
-      <c r="D9" s="70"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="57"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="48"/>
       <c r="W9" s="4"/>
       <c r="X9" s="17"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
       <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="3:32" ht="18" customHeight="1">
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="57"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="4"/>
       <c r="X10" s="17"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
       <c r="AF10" s="4"/>
     </row>
     <row r="11" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C11" s="34">
+      <c r="C11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+8)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+8)</f>
         <v>45571</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="34">
+      <c r="F11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+9)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+9)</f>
         <v>45572</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="34">
+      <c r="I11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+10)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+10)</f>
         <v>45573</v>
       </c>
-      <c r="J11" s="34"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="34">
+      <c r="L11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+11)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+11)</f>
         <v>45574</v>
       </c>
-      <c r="M11" s="34"/>
+      <c r="M11" s="71"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="34">
+      <c r="O11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+12)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+12)</f>
         <v>45575</v>
       </c>
-      <c r="P11" s="34"/>
+      <c r="P11" s="71"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="34">
+      <c r="R11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+13)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+13)</f>
         <v>45576</v>
       </c>
-      <c r="S11" s="34"/>
+      <c r="S11" s="71"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="34">
+      <c r="U11" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+14)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+14)</f>
         <v>45577</v>
       </c>
-      <c r="V11" s="34"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="12"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
       <c r="AF11" s="14"/>
     </row>
     <row r="12" spans="3:32" ht="18" customHeight="1">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="51"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="4"/>
       <c r="X12" s="17"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
       <c r="AF12" s="4"/>
     </row>
     <row r="13" spans="3:32" ht="18" customHeight="1">
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="4"/>
       <c r="X13" s="17"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
       <c r="AF13" s="4"/>
     </row>
     <row r="14" spans="3:32" ht="18" customHeight="1">
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="42"/>
       <c r="W14" s="4"/>
       <c r="X14" s="17"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
       <c r="AF14" s="4"/>
     </row>
     <row r="15" spans="3:32" ht="18" customHeight="1">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="42"/>
       <c r="W15" s="4"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
       <c r="AF15" s="4"/>
     </row>
     <row r="16" spans="3:32" ht="18" customHeight="1">
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="4"/>
       <c r="X16" s="17"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
       <c r="AF16" s="4"/>
     </row>
     <row r="17" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="34">
+      <c r="C17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+15)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+15)</f>
         <v>45578</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="34">
+      <c r="F17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+16)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+16)</f>
         <v>45579</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="34">
+      <c r="I17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+17)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+17)</f>
         <v>45580</v>
       </c>
-      <c r="J17" s="34"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="34">
+      <c r="L17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+18)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+18)</f>
         <v>45581</v>
       </c>
-      <c r="M17" s="34"/>
+      <c r="M17" s="71"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="34">
+      <c r="O17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+19)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+19)</f>
         <v>45582</v>
       </c>
-      <c r="P17" s="34"/>
+      <c r="P17" s="71"/>
       <c r="Q17" s="12"/>
-      <c r="R17" s="34">
+      <c r="R17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+20)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+20)</f>
         <v>45583</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="34">
+      <c r="U17" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+21)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+21)</f>
         <v>45584</v>
       </c>
-      <c r="V17" s="34"/>
+      <c r="V17" s="71"/>
       <c r="W17" s="12"/>
       <c r="X17" s="13"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
       <c r="AF17" s="14"/>
     </row>
     <row r="18" spans="3:32" ht="18" customHeight="1">
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="84" t="s">
+      <c r="F18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="85"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="95"/>
       <c r="W18" s="4"/>
       <c r="X18" s="17"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="3:32" ht="18" customHeight="1">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="85"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="95"/>
       <c r="W19" s="4"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="72"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
       <c r="AF19" s="4"/>
     </row>
     <row r="20" spans="3:32" ht="18" customHeight="1">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="85"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="95"/>
       <c r="W20" s="4"/>
       <c r="X20" s="17"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
       <c r="AF20" s="4"/>
     </row>
     <row r="21" spans="3:32" ht="18" customHeight="1">
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="85"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="94"/>
+      <c r="V21" s="95"/>
       <c r="W21" s="4"/>
       <c r="X21" s="17"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="72"/>
       <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="3:32" ht="18" customHeight="1">
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="95"/>
       <c r="W22" s="4"/>
       <c r="X22" s="17"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
       <c r="AF22" s="4"/>
     </row>
     <row r="23" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C23" s="34">
+      <c r="C23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+22)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+22)</f>
         <v>45585</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="34">
+      <c r="F23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+23)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+23)</f>
         <v>45586</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="34">
+      <c r="I23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+24)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+24)</f>
         <v>45587</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="71"/>
       <c r="K23" s="12"/>
-      <c r="L23" s="34">
+      <c r="L23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+25)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+25)</f>
         <v>45588</v>
       </c>
-      <c r="M23" s="34"/>
+      <c r="M23" s="71"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="34">
+      <c r="O23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+26)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+26)</f>
         <v>45589</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="71"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="34">
+      <c r="R23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+27)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+27)</f>
         <v>45590</v>
       </c>
-      <c r="S23" s="34"/>
+      <c r="S23" s="71"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="34">
+      <c r="U23" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+28)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+28)</f>
         <v>45591</v>
       </c>
-      <c r="V23" s="34"/>
+      <c r="V23" s="71"/>
       <c r="W23" s="12"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
@@ -9875,63 +9791,63 @@
       <c r="AF23" s="14"/>
     </row>
     <row r="24" spans="3:32" ht="18" customHeight="1">
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="93"/>
       <c r="W24" s="4"/>
       <c r="X24" s="17"/>
-      <c r="Y24" s="32">
+      <c r="Y24" s="70">
         <f>EDATE(ThisMonth,-1)</f>
         <v>45557</v>
       </c>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="70"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="3:32" ht="18" customHeight="1">
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="88"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="93"/>
       <c r="W25" s="4"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="20" t="s">
@@ -9958,26 +9874,26 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="3:32" ht="18" customHeight="1">
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="88"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="93"/>
       <c r="W26" s="4"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="30">
@@ -10011,26 +9927,26 @@
       <c r="AF26" s="4"/>
     </row>
     <row r="27" spans="3:32" ht="18" customHeight="1">
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="88"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="93"/>
       <c r="W27" s="4"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="30">
@@ -10064,26 +9980,26 @@
       <c r="AF27" s="4"/>
     </row>
     <row r="28" spans="3:32" ht="18" customHeight="1">
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="88"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="93"/>
       <c r="W28" s="4"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="30">
@@ -10117,47 +10033,47 @@
       <c r="AF28" s="4"/>
     </row>
     <row r="29" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C29" s="34">
+      <c r="C29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+29)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+29)</f>
         <v>45592</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="34">
+      <c r="F29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+30)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+30)</f>
         <v>45593</v>
       </c>
-      <c r="G29" s="34"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="34">
+      <c r="I29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+31)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+31)</f>
         <v>45594</v>
       </c>
-      <c r="J29" s="34"/>
+      <c r="J29" s="71"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="34">
+      <c r="L29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+32)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+32)</f>
         <v>45595</v>
       </c>
-      <c r="M29" s="34"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="34">
+      <c r="O29" s="71">
         <f>IF(MONTH(ThisMonth_WeekStart+33)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+33)</f>
         <v>45596</v>
       </c>
-      <c r="P29" s="34"/>
+      <c r="P29" s="71"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="34" t="str">
+      <c r="R29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+34)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+34)</f>
         <v/>
       </c>
-      <c r="S29" s="34"/>
+      <c r="S29" s="71"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="34" t="str">
+      <c r="U29" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+35)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+35)</f>
         <v/>
       </c>
-      <c r="V29" s="34"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="30">
@@ -10191,28 +10107,28 @@
       <c r="AF29" s="14"/>
     </row>
     <row r="30" spans="3:32" ht="18" customHeight="1">
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="89" t="s">
+      <c r="F30" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="91"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="90"/>
       <c r="W30" s="4"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="30">
@@ -10246,26 +10162,26 @@
       <c r="AF30" s="4"/>
     </row>
     <row r="31" spans="3:32" ht="18" customHeight="1">
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="91"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="90"/>
       <c r="W31" s="4"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="30" t="str">
@@ -10299,26 +10215,26 @@
       <c r="AF31" s="4"/>
     </row>
     <row r="32" spans="3:32" ht="18" customHeight="1">
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="91"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="90"/>
       <c r="W32" s="4"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="4"/>
@@ -10331,61 +10247,61 @@
       <c r="AF32" s="4"/>
     </row>
     <row r="33" spans="3:32" ht="18" customHeight="1">
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="91"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="90"/>
       <c r="W33" s="4"/>
       <c r="X33" s="17"/>
-      <c r="Y33" s="32">
+      <c r="Y33" s="70">
         <f>EDATE(ThisMonth,1)</f>
         <v>45618</v>
       </c>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="70"/>
+      <c r="AD33" s="70"/>
+      <c r="AE33" s="70"/>
       <c r="AF33" s="4"/>
     </row>
     <row r="34" spans="3:32" ht="18" customHeight="1">
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="91"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="90"/>
       <c r="W34" s="4"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="20" t="s">
@@ -10412,47 +10328,47 @@
       <c r="AF34" s="4"/>
     </row>
     <row r="35" spans="3:32" s="26" customFormat="1" ht="18" customHeight="1">
-      <c r="C35" s="34" t="str">
+      <c r="C35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+36)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+36)</f>
         <v/>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="34" t="str">
+      <c r="F35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+37)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+37)</f>
         <v/>
       </c>
-      <c r="G35" s="34"/>
+      <c r="G35" s="71"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="34" t="str">
+      <c r="I35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+38)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+38)</f>
         <v/>
       </c>
-      <c r="J35" s="34"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="34" t="str">
+      <c r="L35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+39)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+39)</f>
         <v/>
       </c>
-      <c r="M35" s="34"/>
+      <c r="M35" s="71"/>
       <c r="N35" s="12"/>
-      <c r="O35" s="34" t="str">
+      <c r="O35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+40)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+40)</f>
         <v/>
       </c>
-      <c r="P35" s="34"/>
+      <c r="P35" s="71"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="34" t="str">
+      <c r="R35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+41)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+41)</f>
         <v/>
       </c>
-      <c r="S35" s="34"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="71" t="str">
         <f>IF(MONTH(ThisMonth_WeekStart+42)&lt;&gt;MONTH(ThisMonth),"",ThisMonth_WeekStart+42)</f>
         <v/>
       </c>
-      <c r="V35" s="34"/>
+      <c r="V35" s="71"/>
       <c r="W35" s="12"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="30" t="str">
@@ -10912,17 +10828,61 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="C30:D34"/>
-    <mergeCell ref="F30:V34"/>
-    <mergeCell ref="Y33:AE33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:W2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="C6:D10"/>
+    <mergeCell ref="F6:V10"/>
+    <mergeCell ref="Y6:AE6"/>
+    <mergeCell ref="Y7:AE7"/>
+    <mergeCell ref="Y8:AE8"/>
+    <mergeCell ref="Y9:AE9"/>
+    <mergeCell ref="Y10:AE10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="C12:D16"/>
+    <mergeCell ref="F12:V16"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="Y13:AE13"/>
+    <mergeCell ref="Y14:AE14"/>
+    <mergeCell ref="Y15:AE15"/>
+    <mergeCell ref="Y16:AE16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="C18:D22"/>
+    <mergeCell ref="F18:V22"/>
+    <mergeCell ref="Y18:AE18"/>
+    <mergeCell ref="Y19:AE19"/>
+    <mergeCell ref="Y20:AE20"/>
+    <mergeCell ref="Y21:AE21"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="C24:D28"/>
     <mergeCell ref="F24:V28"/>
@@ -10939,64 +10899,20 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="C18:D22"/>
-    <mergeCell ref="F18:V22"/>
-    <mergeCell ref="Y18:AE18"/>
-    <mergeCell ref="Y19:AE19"/>
-    <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="Y21:AE21"/>
-    <mergeCell ref="Y22:AE22"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="C12:D16"/>
-    <mergeCell ref="F12:V16"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="Y13:AE13"/>
-    <mergeCell ref="Y14:AE14"/>
-    <mergeCell ref="Y15:AE15"/>
-    <mergeCell ref="Y16:AE16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C6:D10"/>
-    <mergeCell ref="F6:V10"/>
-    <mergeCell ref="Y6:AE6"/>
-    <mergeCell ref="Y7:AE7"/>
-    <mergeCell ref="Y8:AE8"/>
-    <mergeCell ref="Y9:AE9"/>
-    <mergeCell ref="Y10:AE10"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="I2:W2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="C30:D34"/>
+    <mergeCell ref="F30:V34"/>
+    <mergeCell ref="Y33:AE33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="R35:S35"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
-  <conditionalFormatting sqref="C6 C12 C18 C30 C24 F18">
+  <conditionalFormatting sqref="C6 C12 C18 F18 C24 C30">
     <cfRule type="expression" dxfId="27" priority="25" stopIfTrue="1">
       <formula>OFFSET(C6,0,1)="작업"</formula>
     </cfRule>
@@ -11038,60 +10954,60 @@
       <formula>D36="생일"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="작업"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="홈"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
+      <formula>OFFSET(F6,0,1)="개인"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>OFFSET(F6,0,1)="생일"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F12 F24 F30">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>OFFSET(F12,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>OFFSET(F12,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F40 I36:I40 L36:L40 O36:O40 R36:R40 U36:U40">
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>OFFSET(F36,0,1)="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>OFFSET(F36,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G40 J36:J40 M36:M40 P36:P40 S36:S40 V36:V40">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>G36="작업"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>G36="홈"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>G36="개인"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>G36="생일"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="작업"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="홈"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>OFFSET(F6,0,1)="개인"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>OFFSET(F6,0,1)="생일"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
@@ -11206,6 +11122,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -11426,15 +11351,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11445,6 +11361,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B188A4E8-DD34-4E02-9166-B4F24B5C2640}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318A2E4C-B3D4-43E9-9A1B-C21AFCC5EF95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11463,14 +11387,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B188A4E8-DD34-4E02-9166-B4F24B5C2640}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52514E6C-6167-45FF-9D05-C0DB53B9218F}">
   <ds:schemaRefs>
